--- a/dist/闪退测试.xlsx
+++ b/dist/闪退测试.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28155" windowHeight="13185" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12375" firstSheet="1"/>
   </bookViews>
   <sheets>
     <sheet name="单指令示例" sheetId="13" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="用例格式说明" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">单指令示例!$A$1:$N$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">单指令示例!$A$1:$N$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'多测试用例+连接复用示例'!$A$1:$N$31</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="108">
   <si>
     <t>no</t>
   </si>
@@ -78,49 +78,58 @@
     <t>连接复用</t>
   </si>
   <si>
-    <t>1000_ag1</t>
-  </si>
-  <si>
-    <t>step10</t>
-  </si>
-  <si>
-    <t>对比行情数据</t>
-  </si>
-  <si>
-    <t>192.168.1.52</t>
+    <t>test_case01</t>
+  </si>
+  <si>
+    <t>step1</t>
+  </si>
+  <si>
+    <t>测试链接</t>
+  </si>
+  <si>
+    <t>192.168.0.100</t>
+  </si>
+  <si>
+    <t>qq852631192</t>
+  </si>
+  <si>
+    <t>cd /volume1/</t>
+  </si>
+  <si>
+    <t>:/volume1$</t>
+  </si>
+  <si>
+    <t>暂不考虑</t>
+  </si>
+  <si>
+    <t>step2</t>
+  </si>
+  <si>
+    <t>测试复用</t>
+  </si>
+  <si>
+    <t>ls -l</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>深市_1206</t>
+  </si>
+  <si>
+    <t>启动demo</t>
+  </si>
+  <si>
+    <t>192.168.1.80</t>
   </si>
   <si>
     <t>root</t>
   </si>
   <si>
-    <t>cd /home/lbs/ &amp;&amp; ./compare_two_dir.sh /home/lbs/HMT-SF_V1.0.0_B04_20240711/bin/test_market_data sw_data/market_data_SW-0x20230722_date0314-1000_*/</t>
-  </si>
-  <si>
-    <t>对比结果&lt; 行情 &gt;汇总</t>
-  </si>
-  <si>
-    <t>暂不考虑</t>
-  </si>
-  <si>
-    <t>深市_1206</t>
-  </si>
-  <si>
-    <t>step1</t>
-  </si>
-  <si>
-    <t>启动demo</t>
-  </si>
-  <si>
-    <t>192.168.1.80</t>
-  </si>
-  <si>
     <t>cd /home/lbs/HAI-MF-SS_V1.0.0_S1_B1/soft &amp;&amp; sh start.sh</t>
   </si>
   <si>
     <t>启动行情接收|quote manager started</t>
-  </si>
-  <si>
-    <t>step2</t>
   </si>
   <si>
     <t>行情源配置更新</t>
@@ -1013,7 +1022,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1073,6 +1082,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1393,20 +1405,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="7" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.625" style="17" customWidth="1"/>
     <col min="3" max="3" width="6.75" style="2" customWidth="1"/>
     <col min="4" max="4" width="23" style="2" customWidth="1"/>
     <col min="5" max="5" width="14.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="6.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.625" style="2" customWidth="1"/>
     <col min="7" max="7" width="9.625" style="2" customWidth="1"/>
     <col min="8" max="8" width="96.75" style="2" customWidth="1"/>
     <col min="9" max="9" width="9.125" style="2" customWidth="1"/>
@@ -1463,7 +1475,7 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="2">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>14</v>
@@ -1477,11 +1489,11 @@
       <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="20">
+        <v>13877907589</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="G2" s="2">
-        <v>123456</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>19</v>
@@ -1496,17 +1508,61 @@
         <v>1</v>
       </c>
       <c r="L2" s="2">
-        <v>6000</v>
+        <v>5</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N2" s="2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="20">
+        <v>13877907589</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1</v>
+      </c>
+      <c r="L3" s="2">
+        <v>5</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N2">
+  <autoFilter ref="A1:N3">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1590,31 +1646,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="G2" s="2">
         <v>123456</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I2" s="2">
         <v>1</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K2" s="2">
         <v>1</v>
@@ -1634,31 +1690,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="D3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="G3" s="2">
         <v>123456</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K3" s="2">
         <v>1</v>
@@ -1678,31 +1734,31 @@
         <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="G4" s="2">
         <v>123456</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K4" s="2">
         <v>1</v>
@@ -1722,31 +1778,31 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="G5" s="2">
         <v>123456</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I5" s="2">
         <v>1</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K5" s="2">
         <v>30</v>
@@ -1766,31 +1822,31 @@
         <v>5</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="G6" s="2">
         <v>123456</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K6" s="2">
         <v>5</v>
@@ -1810,31 +1866,31 @@
         <v>5</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="G7" s="2">
         <v>123456</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K7" s="2">
         <v>3</v>
@@ -1854,31 +1910,31 @@
         <v>6</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="G8" s="2">
         <v>123456</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I8" s="2">
         <v>1</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K8" s="2">
         <v>2</v>
@@ -1898,31 +1954,31 @@
         <v>7</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="G9" s="2">
         <v>123456</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I9" s="2">
         <v>1</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K9" s="2">
         <v>60</v>
@@ -1942,31 +1998,31 @@
         <v>1</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="G10" s="2">
         <v>123456</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I10" s="2">
         <v>1</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K10" s="2">
         <v>1</v>
@@ -1986,31 +2042,31 @@
         <v>2</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="G11" s="2">
         <v>123456</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I11" s="2">
         <v>1</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K11" s="2">
         <v>1</v>
@@ -2030,31 +2086,31 @@
         <v>3</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="G12" s="2">
         <v>123456</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K12" s="2">
         <v>1</v>
@@ -2074,31 +2130,31 @@
         <v>4</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="G13" s="2">
         <v>123456</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I13" s="2">
         <v>1</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K13" s="2">
         <v>30</v>
@@ -2118,31 +2174,31 @@
         <v>4</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="G14" s="2">
         <v>123456</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I14" s="2">
         <v>1</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K14" s="2">
         <v>3</v>
@@ -2162,31 +2218,31 @@
         <v>5</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="G15" s="2">
         <v>123456</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K15" s="2">
         <v>3</v>
@@ -2206,31 +2262,31 @@
         <v>6</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="G16" s="2">
         <v>123456</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K16" s="2">
         <v>2</v>
@@ -2250,31 +2306,31 @@
         <v>7</v>
       </c>
       <c r="B17" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="D17" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="G17" s="2">
         <v>123456</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I17" s="2">
         <v>1</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K17" s="2">
         <v>60</v>
@@ -2294,31 +2350,31 @@
         <v>1</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="G18" s="2">
         <v>123456</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I18" s="2">
         <v>1</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K18" s="2">
         <v>1</v>
@@ -2338,31 +2394,31 @@
         <v>2</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="G19" s="2">
         <v>123456</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I19" s="2">
         <v>1</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K19" s="2">
         <v>1</v>
@@ -2382,31 +2438,31 @@
         <v>3</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="G20" s="2">
         <v>123456</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I20" s="2">
         <v>1</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K20" s="2">
         <v>1</v>
@@ -2426,31 +2482,31 @@
         <v>4</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="G21" s="2">
         <v>123456</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I21" s="2">
         <v>1</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K21" s="2">
         <v>30</v>
@@ -2470,31 +2526,31 @@
         <v>5</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="G22" s="2">
         <v>123456</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I22" s="2">
         <v>1</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K22" s="2">
         <v>3</v>
@@ -2514,31 +2570,31 @@
         <v>6</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="G23" s="2">
         <v>123456</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I23" s="2">
         <v>1</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K23" s="2">
         <v>2</v>
@@ -2558,31 +2614,31 @@
         <v>7</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="G24" s="2">
         <v>123456</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I24" s="2">
         <v>1</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K24" s="2">
         <v>60</v>
@@ -2602,31 +2658,31 @@
         <v>1</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="G25" s="2">
         <v>123456</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I25" s="2">
         <v>1</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K25" s="2">
         <v>1</v>
@@ -2646,31 +2702,31 @@
         <v>2</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="G26" s="2">
         <v>123456</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I26" s="2">
         <v>1</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K26" s="2">
         <v>1</v>
@@ -2690,31 +2746,31 @@
         <v>3</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="G27" s="2">
         <v>123456</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I27" s="2">
         <v>1</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K27" s="2">
         <v>1</v>
@@ -2734,31 +2790,31 @@
         <v>4</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="G28" s="2">
         <v>123456</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I28" s="2">
         <v>1</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K28" s="2">
         <v>30</v>
@@ -2778,31 +2834,31 @@
         <v>5</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="G29" s="2">
         <v>123456</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I29" s="2">
         <v>1</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K29" s="2">
         <v>3</v>
@@ -2822,31 +2878,31 @@
         <v>6</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="G30" s="2">
         <v>123456</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I30" s="2">
         <v>1</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K30" s="2">
         <v>2</v>
@@ -2866,31 +2922,31 @@
         <v>7</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="G31" s="2">
         <v>123456</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I31" s="2">
         <v>1</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K31" s="2">
         <v>60</v>
@@ -2919,7 +2975,7 @@
   <sheetPr/>
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -2985,31 +3041,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="G2" s="11">
         <v>123456</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I2" s="11">
         <v>0</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K2" s="11">
         <v>120</v>
@@ -3018,76 +3074,76 @@
         <v>6000</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" s="12" customFormat="1" ht="16.5" spans="1:13">
       <c r="A3" s="15"/>
       <c r="B3" s="11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="G3" s="11">
         <v>123456</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I3" s="11">
         <v>0</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K3" s="11">
         <v>5</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" s="12" customFormat="1" ht="16.5" spans="1:13">
       <c r="A4" s="15"/>
       <c r="B4" s="11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="G4" s="11">
         <v>123456</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I4" s="11">
         <v>0</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K4" s="11">
         <v>10</v>
@@ -3096,37 +3152,37 @@
         <v>1200</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" s="12" customFormat="1" ht="16.5" spans="1:13">
       <c r="A5" s="15"/>
       <c r="B5" s="11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C5" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>35</v>
-      </c>
       <c r="F5" s="11" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="G5" s="11">
         <v>123456</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I5" s="11">
         <v>0</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K5" s="11">
         <v>3</v>
@@ -3135,7 +3191,7 @@
         <v>10</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -3220,60 +3276,60 @@
         <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="P1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="81" customHeight="1" spans="1:16">
       <c r="A2" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="13.5" spans="15:16">
@@ -3282,7 +3338,7 @@
     </row>
     <row r="4" customFormat="1" ht="13.5" spans="2:16">
       <c r="B4" s="6" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
